--- a/StringCleaning.xlsx
+++ b/StringCleaning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://starkeyhearingtechnologies-my.sharepoint.com/personal/mark_biegert_starkey_com/Documents/Desktop/Toss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{48059846-337B-4BC6-BEFD-D54C228281A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C80449C-348F-4388-9503-E11942CA2E78}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{48059846-337B-4BC6-BEFD-D54C228281A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B830C4E-0F7F-4226-A73E-A40CCB377CC2}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -19,11 +19,12 @@
   </sheets>
   <definedNames>
     <definedName name="fxTcleaner">_xlfn.LAMBDA(_xlpm.s,_xlpm.k,           _xlfn.LET(           _xlpm.r, _xlfn.TEXTSPLIT(_xlpm.s,,_xlpm.k,TRUE),           _xlfn.TEXTSPLIT(_xlpm.s,,_xlpm.r,TRUE)           ) )</definedName>
+    <definedName name="fxtNumber">_xlfn.LAMBDA(_xlpm.s_1,         _xlfn.LAMBDA(_xlpm.s,_xlpm.k,           _xlfn.LET(                _xlpm.r, _xlfn.TEXTSPLIT(_xlpm.s,,_xlpm.k,TRUE),                _xlfn.TEXTSPLIT(_xlpm.s,,_xlpm.r,TRUE)              ))(_xlpm.s_1,{0,1,2,3,4,5,6,7,8,9})  )</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,6 +37,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -65,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>FROM:</t>
   </si>
@@ -169,6 +172,15 @@
  TEXTSPLIT(s,,r,TRUE)
  )
 )(B7,B9:B18)</t>
+  </si>
+  <si>
+    <t>Base Work</t>
+  </si>
+  <si>
+    <t>Alternatives</t>
+  </si>
+  <si>
+    <t>Focus on Remove Non-Numbers</t>
   </si>
 </sst>
 </file>
@@ -413,8 +425,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="17"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Calculation" xfId="16" builtinId="22" customBuiltin="1"/>
@@ -762,6 +774,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Mark Biegert" refreshedDate="45307.559310185185" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="6" xr:uid="{5BA04B22-7455-4FEB-9C74-146E8376D702}">
   <cacheSource type="worksheet">
@@ -841,7 +857,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -1133,10 +1149,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1174,6 +1190,11 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -1250,40 +1271,90 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" cm="1">
         <f t="array" ref="B23:B25">fxTcleaner(B21,B9:B19)+0</f>
         <v>1.234</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>2123.4589999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>341.67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="str" cm="1">
+        <f t="array" ref="B32:B35">_xlfn.LAMBDA(_xlpm.s_1,
+        _xlfn.LAMBDA(_xlpm.s,_xlpm.k,
+          _xlfn.LET(
+               _xlpm.r, _xlfn.TEXTSPLIT(_xlpm.s,,_xlpm.k,TRUE),
+               _xlfn.TEXTSPLIT(_xlpm.s,,_xlpm.r,TRUE)
+             ))(_xlpm.s_1,{0,1,2,3,4,5,6,7,8,9})
+)(B7)</f>
+        <v>123</v>
+      </c>
+      <c r="D32" t="str" cm="1">
+        <f t="array" ref="D32:D35">fxtNumber(B7)</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="str">
+        <v>256</v>
+      </c>
+      <c r="D33" t="str">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="str">
+        <v>512</v>
+      </c>
+      <c r="D34" t="str">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="str">
+        <v>1024</v>
+      </c>
+      <c r="D35" t="str">
+        <v>1024</v>
       </c>
     </row>
   </sheetData>
@@ -1471,19 +1542,15 @@
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12">
+      <c r="F20">
         <v>1</v>
       </c>
     </row>
@@ -1491,11 +1558,10 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21">
         <v>2</v>
       </c>
     </row>
@@ -1503,19 +1569,15 @@
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12">
+      <c r="F23">
         <v>3</v>
       </c>
     </row>
@@ -1523,11 +1585,10 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12">
+      <c r="E24">
         <v>4</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24">
         <v>4</v>
       </c>
     </row>
@@ -1535,19 +1596,15 @@
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26">
         <v>5</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12">
+      <c r="F26">
         <v>5</v>
       </c>
     </row>
@@ -1555,11 +1612,10 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12">
+      <c r="E27">
         <v>6</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27">
         <v>6</v>
       </c>
     </row>
@@ -1567,13 +1623,13 @@
       <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28">
         <v>9</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28">
         <v>21</v>
       </c>
     </row>
@@ -1606,7 +1662,7 @@
         <f t="shared" ref="E34:E36" si="0">CODE(F34)</f>
         <v>48</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="12">
         <v>0</v>
       </c>
     </row>
